--- a/biology/Zoologie/Polistes_industrius/Polistes_industrius.xlsx
+++ b/biology/Zoologie/Polistes_industrius/Polistes_industrius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Polistes industrius est une espèce fossile de guêpes sociales de la famille des Vespidae, de la sous-famille des Polistinae et du genre Polistes.
 </t>
@@ -511,13 +523,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Polistes industrius est décrite en 1937 par le paléontologue français Nicolas Théobald (1903-1981) dans sa thèse[1],[2]. 
-Fossiles
-L'holotype F145 de l'ère Cénozoïque, et de l'époque Oligocène (33,9 à 23,03 Ma) fait partie de la collection Paul Fliche, enseignant la botanique à l'École nationale des eaux et forêts de Nancy[1] et vient du gisement éocène de Céreste[1], dans les Alpes-de-Haute-Provence, dans la réserve naturelle géologique du Luberon, gérée par le parc naturel régional du Luberon. Les échantillons se trouvent dans les calcaires en plaquettes « supérieurs » du bassin d'Apt-Forcalquier.
-Étymologie
-L'épithète spécifique industrius signifie en latin « industrieux ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Polistes industrius est décrite en 1937 par le paléontologue français Nicolas Théobald (1903-1981) dans sa thèse,. 
 </t>
         </is>
       </c>
@@ -543,19 +553,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Classification</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Caractères
-La diagnose de Nicolas Théobald en 1937[1],[note 1] : 
-« Insecte de grande taille, de couleur brune et noire, abdomen taché de jaune. Tête verticale, aspect triangulaire en vue latérale, légèrement aplatie à l'avant ; antennes dépassant la longueur de la tête, articles mal visibles ; on peut compter trois articles allongés à la base, puis cinq ou six articles courts et finalement une massue légèrement renflée ; yeux composés réniformes, n'atteignant pas la base des mandibules ; clypeus grand, presque carré ; trois ocelles. Cou net, thorax renflé. Abdomen allongé, aminci à l'avant et à l'arrière ; six segments visibles, déboités, orné de taches jaunes (v. figure). Pattes manquantes. Ailes relevées au dessus du thorax ; l'une des ailes antérieures est plissée, l'autre est étalée, on voit en arrière une aile postérieure ; nervation caractéristique des Vespidae (v. fig. 9a). »[1].
-Dimensions
-La longueur totale est de 15 mm et la longueur de l'aile antérieure est de 10 mm. La longueur totale est trop forte, les segments abdominaux étant déboités[1].
-Affinités
-« La nervation de l'aile, bien conservée, la forme du corps et des antennes classent l'Insecte parmi les Vespidae. À cause de son abdomen aminci en avant et en arrière, nous l'attribuons au g. Polistes. 
-Il semble voisin de Polistes maculipennis Sauss. des Indes et de Java, qui a une longueur de 11-13 mm, et une envergure de 26-31 mm, mais ce dernier en diffère par la coloration. »[1].
+          <t>Fossiles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype F145 de l'ère Cénozoïque, et de l'époque Oligocène (33,9 à 23,03 Ma) fait partie de la collection Paul Fliche, enseignant la botanique à l'École nationale des eaux et forêts de Nancy et vient du gisement éocène de Céreste, dans les Alpes-de-Haute-Provence, dans la réserve naturelle géologique du Luberon, gérée par le parc naturel régional du Luberon. Les échantillons se trouvent dans les calcaires en plaquettes « supérieurs » du bassin d'Apt-Forcalquier.
 </t>
         </is>
       </c>
@@ -581,13 +590,167 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique industrius signifie en latin « industrieux ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Polistes_industrius</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Polistes_industrius</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Caractères</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+La diagnose de Nicolas Théobald en 1937,[note 1] : 
+« Insecte de grande taille, de couleur brune et noire, abdomen taché de jaune. Tête verticale, aspect triangulaire en vue latérale, légèrement aplatie à l'avant ; antennes dépassant la longueur de la tête, articles mal visibles ; on peut compter trois articles allongés à la base, puis cinq ou six articles courts et finalement une massue légèrement renflée ; yeux composés réniformes, n'atteignant pas la base des mandibules ; clypeus grand, presque carré ; trois ocelles. Cou net, thorax renflé. Abdomen allongé, aminci à l'avant et à l'arrière ; six segments visibles, déboités, orné de taches jaunes (v. figure). Pattes manquantes. Ailes relevées au dessus du thorax ; l'une des ailes antérieures est plissée, l'autre est étalée, on voit en arrière une aile postérieure ; nervation caractéristique des Vespidae (v. fig. 9a). ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Polistes_industrius</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Polistes_industrius</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Dimensions</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La longueur totale est de 15 mm et la longueur de l'aile antérieure est de 10 mm. La longueur totale est trop forte, les segments abdominaux étant déboités.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Polistes_industrius</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Polistes_industrius</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Affinités</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+« La nervation de l'aile, bien conservée, la forme du corps et des antennes classent l'Insecte parmi les Vespidae. À cause de son abdomen aminci en avant et en arrière, nous l'attribuons au g. Polistes. 
+Il semble voisin de Polistes maculipennis Sauss. des Indes et de Java, qui a une longueur de 11-13 mm, et une envergure de 26-31 mm, mais ce dernier en diffère par la coloration. ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Polistes_industrius</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Polistes_industrius</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">
-« Les Polistes sont des Vespidés sociaux, construisant des nids aériens, à un seul gâteau, sans enveloppe : ils sont répandus dans toutes les parties du monde. »[1].
+« Les Polistes sont des Vespidés sociaux, construisant des nids aériens, à un seul gâteau, sans enveloppe : ils sont répandus dans toutes les parties du monde. ».
 </t>
         </is>
       </c>
